--- a/database/industries/folad/folad/income/yearly/rial.xlsx
+++ b/database/industries/folad/folad/income/yearly/rial.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="H9" s="10" t="inlineStr">
         <is>
-          <t>1401-05-09 (3)</t>
+          <t>1401-07-30 (4)</t>
         </is>
       </c>
     </row>
@@ -851,19 +851,19 @@
         <v/>
       </c>
       <c r="D27" s="14">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="E27" s="14">
-        <v>417</v>
+        <v>231</v>
       </c>
       <c r="F27" s="14">
-        <v>505</v>
+        <v>279</v>
       </c>
       <c r="G27" s="14">
-        <v>1306</v>
+        <v>722</v>
       </c>
       <c r="H27" s="14">
-        <v>2868</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="28">

--- a/database/industries/folad/folad/income/yearly/rial.xlsx
+++ b/database/industries/folad/folad/income/yearly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\folad\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39384366-0D63-485D-9F70-AB23E3AC70E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CDDF16-CB06-4AF7-832C-458110FF4366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فولاد-فولاد مبارکه اصفهان</t>
@@ -37,21 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1391/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1395/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1396/12</t>
   </si>
   <si>
@@ -70,21 +55,6 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1393-04-21 (18)</t>
-  </si>
-  <si>
-    <t>1394-04-18 (23)</t>
-  </si>
-  <si>
-    <t>1395-04-27 (22)</t>
-  </si>
-  <si>
-    <t>1396-04-18 (16)</t>
-  </si>
-  <si>
-    <t>1397-04-20 (15)</t>
-  </si>
-  <si>
     <t>1398-04-23 (9)</t>
   </si>
   <si>
@@ -97,7 +67,7 @@
     <t>1401-05-09 (9)</t>
   </si>
   <si>
-    <t>1401-07-30 (4)</t>
+    <t>1401-10-29 (6)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -618,18 +588,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="13" width="29" customWidth="1"/>
+    <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -637,13 +607,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,13 +618,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -669,13 +629,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -683,13 +638,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -699,13 +649,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -715,13 +660,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -729,13 +669,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -755,59 +690,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -815,447 +720,262 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>70683483</v>
+        <v>158021839</v>
       </c>
       <c r="E11" s="13">
-        <v>97278523</v>
+        <v>234757238</v>
       </c>
       <c r="F11" s="13">
-        <v>101999244</v>
+        <v>391458791</v>
       </c>
       <c r="G11" s="13">
-        <v>78166967</v>
+        <v>774036745</v>
       </c>
       <c r="H11" s="13">
-        <v>101083653</v>
-      </c>
-      <c r="I11" s="13">
-        <v>158021839</v>
-      </c>
-      <c r="J11" s="13">
-        <v>234757238</v>
-      </c>
-      <c r="K11" s="13">
-        <v>391458791</v>
-      </c>
-      <c r="L11" s="13">
-        <v>774036745</v>
-      </c>
-      <c r="M11" s="13">
         <v>1456266489</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-43298699</v>
+        <v>-85261468</v>
       </c>
       <c r="E12" s="11">
-        <v>-56201638</v>
+        <v>-124803148</v>
       </c>
       <c r="F12" s="11">
-        <v>-69365075</v>
+        <v>-225458652</v>
       </c>
       <c r="G12" s="11">
-        <v>-56476516</v>
+        <v>-406302318</v>
       </c>
       <c r="H12" s="11">
-        <v>-66160253</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-85261468</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-124803148</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-225458652</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-406302318</v>
-      </c>
-      <c r="M12" s="11">
         <v>-701949251</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>27384784</v>
+        <v>72760371</v>
       </c>
       <c r="E13" s="15">
-        <v>41076885</v>
+        <v>109954090</v>
       </c>
       <c r="F13" s="15">
-        <v>32634169</v>
+        <v>166000139</v>
       </c>
       <c r="G13" s="15">
-        <v>21690451</v>
+        <v>367734427</v>
       </c>
       <c r="H13" s="15">
-        <v>34923400</v>
-      </c>
-      <c r="I13" s="15">
-        <v>72760371</v>
-      </c>
-      <c r="J13" s="15">
-        <v>109954090</v>
-      </c>
-      <c r="K13" s="15">
-        <v>166000139</v>
-      </c>
-      <c r="L13" s="15">
-        <v>367734427</v>
-      </c>
-      <c r="M13" s="15">
         <v>754317238</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-3268854</v>
+        <v>-6870013</v>
       </c>
       <c r="E14" s="11">
-        <v>-5021132</v>
+        <v>-7692537</v>
       </c>
       <c r="F14" s="11">
-        <v>-6181022</v>
+        <v>-11938176</v>
       </c>
       <c r="G14" s="11">
-        <v>-6255342</v>
+        <v>-18679133</v>
       </c>
       <c r="H14" s="11">
-        <v>-6693722</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-6870013</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-7692537</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-11938176</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-18679133</v>
-      </c>
-      <c r="M14" s="11">
         <v>-32283996</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="13">
+        <v>21</v>
+      </c>
+      <c r="E15" s="13">
         <v>0</v>
       </c>
-      <c r="K15" s="13">
+      <c r="F15" s="13">
         <v>0</v>
       </c>
-      <c r="L15" s="13">
+      <c r="G15" s="13">
         <v>0</v>
       </c>
-      <c r="M15" s="13">
+      <c r="H15" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>850163</v>
+        <v>1403184</v>
       </c>
       <c r="E16" s="11">
-        <v>3456013</v>
+        <v>17076969</v>
       </c>
       <c r="F16" s="11">
-        <v>2298717</v>
+        <v>-1475350</v>
       </c>
       <c r="G16" s="11">
-        <v>106199</v>
+        <v>6356145</v>
       </c>
       <c r="H16" s="11">
-        <v>525201</v>
-      </c>
-      <c r="I16" s="11">
-        <v>1403184</v>
-      </c>
-      <c r="J16" s="11">
-        <v>17076969</v>
-      </c>
-      <c r="K16" s="11">
-        <v>-1475350</v>
-      </c>
-      <c r="L16" s="11">
-        <v>6356145</v>
-      </c>
-      <c r="M16" s="11">
         <v>12254291</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>24966093</v>
+        <v>67293542</v>
       </c>
       <c r="E17" s="15">
-        <v>39511766</v>
+        <v>119338522</v>
       </c>
       <c r="F17" s="15">
-        <v>28751864</v>
+        <v>152586613</v>
       </c>
       <c r="G17" s="15">
-        <v>15541308</v>
+        <v>355411439</v>
       </c>
       <c r="H17" s="15">
-        <v>28754879</v>
-      </c>
-      <c r="I17" s="15">
-        <v>67293542</v>
-      </c>
-      <c r="J17" s="15">
-        <v>119338522</v>
-      </c>
-      <c r="K17" s="15">
-        <v>152586613</v>
-      </c>
-      <c r="L17" s="15">
-        <v>355411439</v>
-      </c>
-      <c r="M17" s="15">
         <v>734287533</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-4093695</v>
+        <v>-11052537</v>
       </c>
       <c r="E18" s="11">
-        <v>-6319767</v>
+        <v>-10253754</v>
       </c>
       <c r="F18" s="11">
-        <v>-7910993</v>
+        <v>-14710422</v>
       </c>
       <c r="G18" s="11">
-        <v>-8921334</v>
+        <v>-30243308</v>
       </c>
       <c r="H18" s="11">
-        <v>-8923398</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-11052537</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-10253754</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-14710422</v>
-      </c>
-      <c r="L18" s="11">
-        <v>-30243308</v>
-      </c>
-      <c r="M18" s="11">
         <v>-24945630</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>2343972</v>
+        <v>9823018</v>
       </c>
       <c r="E19" s="13">
-        <v>2072243</v>
+        <v>23084419</v>
       </c>
       <c r="F19" s="13">
-        <v>5995674</v>
+        <v>31122266</v>
       </c>
       <c r="G19" s="13">
-        <v>2141446</v>
+        <v>90009897</v>
       </c>
       <c r="H19" s="13">
-        <v>3085080</v>
-      </c>
-      <c r="I19" s="13">
-        <v>9823018</v>
-      </c>
-      <c r="J19" s="13">
-        <v>23084419</v>
-      </c>
-      <c r="K19" s="13">
-        <v>31122266</v>
-      </c>
-      <c r="L19" s="13">
-        <v>90009897</v>
-      </c>
-      <c r="M19" s="13">
         <v>182146885</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>23216370</v>
+        <v>66064023</v>
       </c>
       <c r="E20" s="17">
-        <v>35264242</v>
+        <v>132169187</v>
       </c>
       <c r="F20" s="17">
-        <v>26836545</v>
+        <v>168998457</v>
       </c>
       <c r="G20" s="17">
-        <v>8761420</v>
+        <v>415178028</v>
       </c>
       <c r="H20" s="17">
-        <v>22916561</v>
-      </c>
-      <c r="I20" s="17">
-        <v>66064023</v>
-      </c>
-      <c r="J20" s="17">
-        <v>132169187</v>
-      </c>
-      <c r="K20" s="17">
-        <v>168998457</v>
-      </c>
-      <c r="L20" s="17">
-        <v>415178028</v>
-      </c>
-      <c r="M20" s="17">
         <v>891488788</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-3164581</v>
+        <v>-5747241</v>
       </c>
       <c r="E21" s="13">
-        <v>-4376767</v>
+        <v>-9864015</v>
       </c>
       <c r="F21" s="13">
-        <v>-3075814</v>
+        <v>-21038649</v>
       </c>
       <c r="G21" s="13">
-        <v>-829704</v>
+        <v>-32403017</v>
       </c>
       <c r="H21" s="13">
-        <v>-2146221</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-5747241</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-9864015</v>
-      </c>
-      <c r="K21" s="13">
-        <v>-21038649</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-32403017</v>
-      </c>
-      <c r="M21" s="13">
         <v>-51182605</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>20051789</v>
+        <v>60316782</v>
       </c>
       <c r="E22" s="17">
-        <v>30887475</v>
+        <v>122305172</v>
       </c>
       <c r="F22" s="17">
-        <v>23760731</v>
+        <v>147959808</v>
       </c>
       <c r="G22" s="17">
-        <v>7931716</v>
+        <v>382775011</v>
       </c>
       <c r="H22" s="17">
-        <v>20770340</v>
-      </c>
-      <c r="I22" s="17">
-        <v>60316782</v>
-      </c>
-      <c r="J22" s="17">
-        <v>122305172</v>
-      </c>
-      <c r="K22" s="17">
-        <v>147959808</v>
-      </c>
-      <c r="L22" s="17">
-        <v>382775011</v>
-      </c>
-      <c r="M22" s="17">
         <v>840306183</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1273,167 +993,92 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>20051789</v>
+        <v>60316782</v>
       </c>
       <c r="E24" s="17">
-        <v>30887475</v>
+        <v>122305172</v>
       </c>
       <c r="F24" s="17">
-        <v>23760731</v>
+        <v>147959808</v>
       </c>
       <c r="G24" s="17">
-        <v>7931716</v>
+        <v>382775011</v>
       </c>
       <c r="H24" s="17">
-        <v>20770340</v>
-      </c>
-      <c r="I24" s="17">
-        <v>60316782</v>
-      </c>
-      <c r="J24" s="17">
-        <v>122305172</v>
-      </c>
-      <c r="K24" s="17">
-        <v>147959808</v>
-      </c>
-      <c r="L24" s="17">
-        <v>382775011</v>
-      </c>
-      <c r="M24" s="17">
         <v>840306183</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>777</v>
+        <v>804</v>
       </c>
       <c r="E25" s="13">
-        <v>858</v>
+        <v>585</v>
       </c>
       <c r="F25" s="13">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="G25" s="13">
-        <v>159</v>
+        <v>1306</v>
       </c>
       <c r="H25" s="13">
-        <v>277</v>
-      </c>
-      <c r="I25" s="13">
-        <v>804</v>
-      </c>
-      <c r="J25" s="13">
-        <v>585</v>
-      </c>
-      <c r="K25" s="13">
-        <v>505</v>
-      </c>
-      <c r="L25" s="13">
-        <v>1306</v>
-      </c>
-      <c r="M25" s="13">
         <v>2868</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>25800000</v>
+        <v>75000000</v>
       </c>
       <c r="E26" s="11">
-        <v>36000000</v>
+        <v>209000000</v>
       </c>
       <c r="F26" s="11">
-        <v>50000000</v>
+        <v>293000000</v>
       </c>
       <c r="G26" s="11">
-        <v>50000000</v>
+        <v>293000000</v>
       </c>
       <c r="H26" s="11">
-        <v>75000000</v>
-      </c>
-      <c r="I26" s="11">
-        <v>75000000</v>
-      </c>
-      <c r="J26" s="11">
-        <v>209000000</v>
-      </c>
-      <c r="K26" s="11">
         <v>293000000</v>
       </c>
-      <c r="L26" s="11">
-        <v>293000000</v>
-      </c>
-      <c r="M26" s="11">
-        <v>293000000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="E27" s="13">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="F27" s="13">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="G27" s="13">
-        <v>15</v>
+        <v>722</v>
       </c>
       <c r="H27" s="13">
-        <v>39</v>
-      </c>
-      <c r="I27" s="13">
-        <v>114</v>
-      </c>
-      <c r="J27" s="13">
-        <v>231</v>
-      </c>
-      <c r="K27" s="13">
-        <v>279</v>
-      </c>
-      <c r="L27" s="13">
-        <v>722</v>
-      </c>
-      <c r="M27" s="13">
         <v>1585</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1441,11 +1086,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/folad/folad/income/yearly/rial.xlsx
+++ b/database/industries/folad/folad/income/yearly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CDDF16-CB06-4AF7-832C-458110FF4366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2094D622-41E8-45FE-A317-44979BC33E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1398-04-23 (9)</t>
-  </si>
-  <si>
     <t>1399-05-09 (11)</t>
   </si>
   <si>
@@ -67,7 +64,10 @@
     <t>1401-05-09 (9)</t>
   </si>
   <si>
-    <t>1401-10-29 (6)</t>
+    <t>1402-02-30 (8)</t>
+  </si>
+  <si>
+    <t>1402-02-30 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>هزینه کاهش ارزش دریافتنی‌‏ها (هزینه استثنایی)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>خالص سایر درامدها (هزینه ها) ی عملیاتی</t>
@@ -592,14 +589,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -608,7 +605,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +616,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -630,7 +627,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -639,7 +636,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -650,7 +647,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -661,7 +658,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -670,7 +667,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -691,7 +688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -712,7 +709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -721,97 +718,97 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>158021839</v>
+        <v>234757238</v>
       </c>
       <c r="E11" s="13">
-        <v>234757238</v>
+        <v>391458791</v>
       </c>
       <c r="F11" s="13">
-        <v>391458791</v>
+        <v>774036745</v>
       </c>
       <c r="G11" s="13">
-        <v>774036745</v>
+        <v>1456266489</v>
       </c>
       <c r="H11" s="13">
-        <v>1456266489</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1607038537</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-85261468</v>
+        <v>-124803148</v>
       </c>
       <c r="E12" s="11">
-        <v>-124803148</v>
+        <v>-225458652</v>
       </c>
       <c r="F12" s="11">
-        <v>-225458652</v>
+        <v>-406302318</v>
       </c>
       <c r="G12" s="11">
-        <v>-406302318</v>
+        <v>-701949250</v>
       </c>
       <c r="H12" s="11">
-        <v>-701949251</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1036494655</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>72760371</v>
+        <v>109954090</v>
       </c>
       <c r="E13" s="15">
-        <v>109954090</v>
+        <v>166000139</v>
       </c>
       <c r="F13" s="15">
-        <v>166000139</v>
+        <v>367734427</v>
       </c>
       <c r="G13" s="15">
-        <v>367734427</v>
+        <v>754317239</v>
       </c>
       <c r="H13" s="15">
-        <v>754317238</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>570543882</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-6870013</v>
+        <v>-7692537</v>
       </c>
       <c r="E14" s="11">
-        <v>-7692537</v>
+        <v>-11938176</v>
       </c>
       <c r="F14" s="11">
-        <v>-11938176</v>
+        <v>-18679133</v>
       </c>
       <c r="G14" s="11">
-        <v>-18679133</v>
+        <v>-34327741</v>
       </c>
       <c r="H14" s="11">
-        <v>-32283996</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-53307287</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
-        <v>21</v>
+      <c r="D15" s="13">
+        <v>0</v>
       </c>
       <c r="E15" s="13">
         <v>0</v>
@@ -826,156 +823,156 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>1403184</v>
+        <v>17076969</v>
       </c>
       <c r="E16" s="11">
-        <v>17076969</v>
+        <v>-1475350</v>
       </c>
       <c r="F16" s="11">
-        <v>-1475350</v>
+        <v>6356145</v>
       </c>
       <c r="G16" s="11">
-        <v>6356145</v>
+        <v>12254290</v>
       </c>
       <c r="H16" s="11">
-        <v>12254291</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>23322833</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>67293542</v>
+        <v>119338522</v>
       </c>
       <c r="E17" s="15">
-        <v>119338522</v>
+        <v>152586613</v>
       </c>
       <c r="F17" s="15">
-        <v>152586613</v>
+        <v>355411439</v>
       </c>
       <c r="G17" s="15">
-        <v>355411439</v>
+        <v>732243788</v>
       </c>
       <c r="H17" s="15">
-        <v>734287533</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>540559428</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-11052537</v>
+        <v>-10253754</v>
       </c>
       <c r="E18" s="11">
-        <v>-10253754</v>
+        <v>-14710422</v>
       </c>
       <c r="F18" s="11">
-        <v>-14710422</v>
+        <v>-30243308</v>
       </c>
       <c r="G18" s="11">
-        <v>-30243308</v>
+        <v>-24945630</v>
       </c>
       <c r="H18" s="11">
-        <v>-24945630</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-37181720</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>9823018</v>
+        <v>23084419</v>
       </c>
       <c r="E19" s="13">
-        <v>23084419</v>
+        <v>31122266</v>
       </c>
       <c r="F19" s="13">
-        <v>31122266</v>
+        <v>90009897</v>
       </c>
       <c r="G19" s="13">
-        <v>90009897</v>
+        <v>184678606</v>
       </c>
       <c r="H19" s="13">
-        <v>182146885</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>100883934</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>66064023</v>
+        <v>132169187</v>
       </c>
       <c r="E20" s="17">
-        <v>132169187</v>
+        <v>168998457</v>
       </c>
       <c r="F20" s="17">
-        <v>168998457</v>
+        <v>415178028</v>
       </c>
       <c r="G20" s="17">
-        <v>415178028</v>
+        <v>891976764</v>
       </c>
       <c r="H20" s="17">
-        <v>891488788</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>604261642</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-5747241</v>
+        <v>-9864015</v>
       </c>
       <c r="E21" s="13">
-        <v>-9864015</v>
+        <v>-21038649</v>
       </c>
       <c r="F21" s="13">
-        <v>-21038649</v>
+        <v>-32403017</v>
       </c>
       <c r="G21" s="13">
-        <v>-32403017</v>
+        <v>-51182605</v>
       </c>
       <c r="H21" s="13">
-        <v>-51182605</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-56957617</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>60316782</v>
+        <v>122305172</v>
       </c>
       <c r="E22" s="17">
-        <v>122305172</v>
+        <v>147959808</v>
       </c>
       <c r="F22" s="17">
-        <v>147959808</v>
+        <v>382775011</v>
       </c>
       <c r="G22" s="17">
-        <v>382775011</v>
+        <v>840794159</v>
       </c>
       <c r="H22" s="17">
-        <v>840306183</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>547304025</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -994,58 +991,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>60316782</v>
+        <v>122305172</v>
       </c>
       <c r="E24" s="17">
-        <v>122305172</v>
+        <v>147959808</v>
       </c>
       <c r="F24" s="17">
-        <v>147959808</v>
+        <v>382775011</v>
       </c>
       <c r="G24" s="17">
-        <v>382775011</v>
+        <v>840794159</v>
       </c>
       <c r="H24" s="17">
-        <v>840306183</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>547304025</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>804</v>
+        <v>585</v>
       </c>
       <c r="E25" s="13">
-        <v>585</v>
+        <v>505</v>
       </c>
       <c r="F25" s="13">
-        <v>505</v>
+        <v>1306</v>
       </c>
       <c r="G25" s="13">
-        <v>1306</v>
+        <v>2870</v>
       </c>
       <c r="H25" s="13">
-        <v>2868</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>75000000</v>
+        <v>209000000</v>
       </c>
       <c r="E26" s="11">
-        <v>209000000</v>
+        <v>293000000</v>
       </c>
       <c r="F26" s="11">
         <v>293000000</v>
@@ -1054,31 +1051,31 @@
         <v>293000000</v>
       </c>
       <c r="H26" s="11">
-        <v>293000000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>800000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="E27" s="13">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="F27" s="13">
-        <v>279</v>
+        <v>478</v>
       </c>
       <c r="G27" s="13">
-        <v>722</v>
+        <v>1051</v>
       </c>
       <c r="H27" s="13">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/folad/folad/income/yearly/rial.xlsx
+++ b/database/industries/folad/folad/income/yearly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\folad\folad\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2094D622-41E8-45FE-A317-44979BC33E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AE2700-8267-4E18-9466-E1ACB887E216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1392/12</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1393/12</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1394/12</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1395/12</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1396/12</t>
+  </si>
+  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -55,6 +70,21 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1394-04-18 (23)</t>
+  </si>
+  <si>
+    <t>1395-04-27 (22)</t>
+  </si>
+  <si>
+    <t>1396-04-18 (16)</t>
+  </si>
+  <si>
+    <t>1397-04-20 (15)</t>
+  </si>
+  <si>
+    <t>1398-04-23 (9)</t>
+  </si>
+  <si>
     <t>1399-05-09 (11)</t>
   </si>
   <si>
@@ -64,10 +94,10 @@
     <t>1401-05-09 (9)</t>
   </si>
   <si>
-    <t>1402-02-30 (8)</t>
-  </si>
-  <si>
-    <t>1402-02-30 (2)</t>
+    <t>1402-04-26 (10)</t>
+  </si>
+  <si>
+    <t>1402-04-29 (5)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -83,6 +113,9 @@
   </si>
   <si>
     <t>هزینه کاهش ارزش دریافتنی‌‏ها (هزینه استثنایی)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>خالص سایر درامدها (هزینه ها) ی عملیاتی</t>
@@ -585,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -593,10 +626,10 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="8" width="29" customWidth="1"/>
+    <col min="4" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -604,8 +637,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -615,8 +653,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -626,8 +669,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -635,8 +683,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -646,8 +699,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -657,8 +715,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -666,8 +729,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -687,29 +755,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -717,262 +815,447 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>97278523</v>
+      </c>
+      <c r="E11" s="13">
+        <v>101999244</v>
+      </c>
+      <c r="F11" s="13">
+        <v>78166967</v>
+      </c>
+      <c r="G11" s="13">
+        <v>101083653</v>
+      </c>
+      <c r="H11" s="13">
+        <v>158021839</v>
+      </c>
+      <c r="I11" s="13">
         <v>234757238</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>391458791</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>774036745</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>1456266489</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>1607038537</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-56201638</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-69365075</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-56476516</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-66160253</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-85261468</v>
+      </c>
+      <c r="I12" s="11">
         <v>-124803148</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-225458652</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-406302318</v>
       </c>
-      <c r="G12" s="11">
-        <v>-701949250</v>
-      </c>
-      <c r="H12" s="11">
-        <v>-1036494655</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L12" s="11">
+        <v>-701949251</v>
+      </c>
+      <c r="M12" s="11">
+        <v>-1039222069</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>41076885</v>
+      </c>
+      <c r="E13" s="15">
+        <v>32634169</v>
+      </c>
+      <c r="F13" s="15">
+        <v>21690451</v>
+      </c>
+      <c r="G13" s="15">
+        <v>34923400</v>
+      </c>
+      <c r="H13" s="15">
+        <v>72760371</v>
+      </c>
+      <c r="I13" s="15">
         <v>109954090</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>166000139</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>367734427</v>
       </c>
-      <c r="G13" s="15">
-        <v>754317239</v>
-      </c>
-      <c r="H13" s="15">
-        <v>570543882</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L13" s="15">
+        <v>754317238</v>
+      </c>
+      <c r="M13" s="15">
+        <v>567816468</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-5021132</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-6181022</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-6255342</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-6693722</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-6870013</v>
+      </c>
+      <c r="I14" s="11">
         <v>-7692537</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-11938176</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-18679133</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-34327741</v>
       </c>
-      <c r="H14" s="11">
-        <v>-53307287</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M14" s="11">
+        <v>-57705982</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="13">
-        <v>0</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>3456013</v>
+      </c>
+      <c r="E16" s="11">
+        <v>2298717</v>
+      </c>
+      <c r="F16" s="11">
+        <v>106199</v>
+      </c>
+      <c r="G16" s="11">
+        <v>525201</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1403184</v>
+      </c>
+      <c r="I16" s="11">
         <v>17076969</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>-1475350</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>6356145</v>
       </c>
-      <c r="G16" s="11">
-        <v>12254290</v>
-      </c>
-      <c r="H16" s="11">
-        <v>23322833</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L16" s="11">
+        <v>12254292</v>
+      </c>
+      <c r="M16" s="11">
+        <v>28207579</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>39511766</v>
+      </c>
+      <c r="E17" s="15">
+        <v>28751864</v>
+      </c>
+      <c r="F17" s="15">
+        <v>15541308</v>
+      </c>
+      <c r="G17" s="15">
+        <v>28754879</v>
+      </c>
+      <c r="H17" s="15">
+        <v>67293542</v>
+      </c>
+      <c r="I17" s="15">
         <v>119338522</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>152586613</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>355411439</v>
       </c>
-      <c r="G17" s="15">
-        <v>732243788</v>
-      </c>
-      <c r="H17" s="15">
-        <v>540559428</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L17" s="15">
+        <v>732243789</v>
+      </c>
+      <c r="M17" s="15">
+        <v>538318065</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-6319767</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-7910993</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-8921334</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-8923398</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-11052537</v>
+      </c>
+      <c r="I18" s="11">
         <v>-10253754</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>-14710422</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>-30243308</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>-24945630</v>
       </c>
-      <c r="H18" s="11">
-        <v>-37181720</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M18" s="11">
+        <v>-37824386</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>2072243</v>
+      </c>
+      <c r="E19" s="13">
+        <v>5995674</v>
+      </c>
+      <c r="F19" s="13">
+        <v>2141446</v>
+      </c>
+      <c r="G19" s="13">
+        <v>3085080</v>
+      </c>
+      <c r="H19" s="13">
+        <v>9823018</v>
+      </c>
+      <c r="I19" s="13">
         <v>23084419</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>31122266</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>90009897</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>184678606</v>
       </c>
-      <c r="H19" s="13">
-        <v>100883934</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M19" s="13">
+        <v>228667077</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>35264242</v>
+      </c>
+      <c r="E20" s="17">
+        <v>26836545</v>
+      </c>
+      <c r="F20" s="17">
+        <v>8761420</v>
+      </c>
+      <c r="G20" s="17">
+        <v>22916561</v>
+      </c>
+      <c r="H20" s="17">
+        <v>66064023</v>
+      </c>
+      <c r="I20" s="17">
         <v>132169187</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>168998457</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>415178028</v>
       </c>
-      <c r="G20" s="17">
-        <v>891976764</v>
-      </c>
-      <c r="H20" s="17">
-        <v>604261642</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L20" s="17">
+        <v>891976765</v>
+      </c>
+      <c r="M20" s="17">
+        <v>729160756</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-4376767</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-3075814</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-829704</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-2146221</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-5747241</v>
+      </c>
+      <c r="I21" s="13">
         <v>-9864015</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>-21038649</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-32403017</v>
       </c>
-      <c r="G21" s="13">
-        <v>-51182605</v>
-      </c>
-      <c r="H21" s="13">
-        <v>-56957617</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L21" s="13">
+        <v>-62985596</v>
+      </c>
+      <c r="M21" s="13">
+        <v>-49919939</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>30887475</v>
+      </c>
+      <c r="E22" s="17">
+        <v>23760731</v>
+      </c>
+      <c r="F22" s="17">
+        <v>7931716</v>
+      </c>
+      <c r="G22" s="17">
+        <v>20770340</v>
+      </c>
+      <c r="H22" s="17">
+        <v>60316782</v>
+      </c>
+      <c r="I22" s="17">
         <v>122305172</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>147959808</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>382775011</v>
       </c>
-      <c r="G22" s="17">
-        <v>840794159</v>
-      </c>
-      <c r="H22" s="17">
-        <v>547304025</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L22" s="17">
+        <v>828991169</v>
+      </c>
+      <c r="M22" s="17">
+        <v>679240817</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -990,92 +1273,167 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>30887475</v>
+      </c>
+      <c r="E24" s="17">
+        <v>23760731</v>
+      </c>
+      <c r="F24" s="17">
+        <v>7931716</v>
+      </c>
+      <c r="G24" s="17">
+        <v>20770340</v>
+      </c>
+      <c r="H24" s="17">
+        <v>60316782</v>
+      </c>
+      <c r="I24" s="17">
         <v>122305172</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>147959808</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>382775011</v>
       </c>
-      <c r="G24" s="17">
-        <v>840794159</v>
-      </c>
-      <c r="H24" s="17">
-        <v>547304025</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L24" s="17">
+        <v>828991169</v>
+      </c>
+      <c r="M24" s="17">
+        <v>679240817</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>858</v>
+      </c>
+      <c r="E25" s="13">
+        <v>475</v>
+      </c>
+      <c r="F25" s="13">
+        <v>159</v>
+      </c>
+      <c r="G25" s="13">
+        <v>277</v>
+      </c>
+      <c r="H25" s="13">
+        <v>804</v>
+      </c>
+      <c r="I25" s="13">
         <v>585</v>
       </c>
-      <c r="E25" s="13">
+      <c r="J25" s="13">
         <v>505</v>
       </c>
-      <c r="F25" s="13">
+      <c r="K25" s="13">
         <v>1306</v>
       </c>
-      <c r="G25" s="13">
-        <v>2870</v>
-      </c>
-      <c r="H25" s="13">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L25" s="13">
+        <v>1036</v>
+      </c>
+      <c r="M25" s="13">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
+        <v>36000000</v>
+      </c>
+      <c r="E26" s="11">
+        <v>50000000</v>
+      </c>
+      <c r="F26" s="11">
+        <v>50000000</v>
+      </c>
+      <c r="G26" s="11">
+        <v>75000000</v>
+      </c>
+      <c r="H26" s="11">
+        <v>75000000</v>
+      </c>
+      <c r="I26" s="11">
         <v>209000000</v>
       </c>
-      <c r="E26" s="11">
+      <c r="J26" s="11">
         <v>293000000</v>
       </c>
-      <c r="F26" s="11">
+      <c r="K26" s="11">
         <v>293000000</v>
       </c>
-      <c r="G26" s="11">
-        <v>293000000</v>
-      </c>
-      <c r="H26" s="11">
+      <c r="L26" s="11">
         <v>800000000</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M26" s="11">
+        <v>800000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>39</v>
+      </c>
+      <c r="E27" s="13">
+        <v>30</v>
+      </c>
+      <c r="F27" s="13">
+        <v>10</v>
+      </c>
+      <c r="G27" s="13">
+        <v>26</v>
+      </c>
+      <c r="H27" s="13">
+        <v>75</v>
+      </c>
+      <c r="I27" s="13">
         <v>153</v>
       </c>
-      <c r="E27" s="13">
+      <c r="J27" s="13">
         <v>185</v>
       </c>
-      <c r="F27" s="13">
+      <c r="K27" s="13">
         <v>478</v>
       </c>
-      <c r="G27" s="13">
-        <v>1051</v>
-      </c>
-      <c r="H27" s="13">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L27" s="13">
+        <v>1036</v>
+      </c>
+      <c r="M27" s="13">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1083,6 +1441,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/folad/folad/income/yearly/rial.xlsx
+++ b/database/industries/folad/folad/income/yearly/rial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\folad\folad\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AE2700-8267-4E18-9466-E1ACB887E216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8595A0D-A640-421B-84AA-2C80995338C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,36 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1382/12</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1383/12</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1384/12</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1385/12</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1386/12</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1387/12</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1388/12</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1389/12</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1390/12</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1391/12</t>
+  </si>
+  <si>
     <t>12 ماهه منتهی به 1392/12</t>
   </si>
   <si>
@@ -68,6 +98,33 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1390-05-17 (4)</t>
+  </si>
+  <si>
+    <t>1390-05-18 (4)</t>
+  </si>
+  <si>
+    <t>1390-05-18 (6)</t>
+  </si>
+  <si>
+    <t>1388-03-18 (10)</t>
+  </si>
+  <si>
+    <t>1389-04-06 (12)</t>
+  </si>
+  <si>
+    <t>1390-04-19 (13)</t>
+  </si>
+  <si>
+    <t>1391-04-19 (14)</t>
+  </si>
+  <si>
+    <t>1392-04-18 (14)</t>
+  </si>
+  <si>
+    <t>1393-04-21 (18)</t>
   </si>
   <si>
     <t>1394-04-18 (23)</t>
@@ -618,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -626,10 +683,10 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="13" width="29" customWidth="1"/>
+    <col min="4" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -642,8 +699,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -658,8 +725,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -674,8 +751,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -688,8 +775,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -704,8 +801,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -720,8 +827,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -734,8 +851,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -770,44 +897,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -820,442 +1007,812 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>8401911</v>
+      </c>
+      <c r="E11" s="13">
+        <v>16122099</v>
+      </c>
+      <c r="F11" s="13">
+        <v>17638975</v>
+      </c>
+      <c r="G11" s="13">
+        <v>22035815</v>
+      </c>
+      <c r="H11" s="13">
+        <v>31720223</v>
+      </c>
+      <c r="I11" s="13">
+        <v>35893763</v>
+      </c>
+      <c r="J11" s="13">
+        <v>28209051</v>
+      </c>
+      <c r="K11" s="13">
+        <v>37586816</v>
+      </c>
+      <c r="L11" s="13">
+        <v>45677402</v>
+      </c>
+      <c r="M11" s="13">
+        <v>70683483</v>
+      </c>
+      <c r="N11" s="13">
         <v>97278523</v>
       </c>
-      <c r="E11" s="13">
+      <c r="O11" s="13">
         <v>101999244</v>
       </c>
-      <c r="F11" s="13">
+      <c r="P11" s="13">
         <v>78166967</v>
       </c>
-      <c r="G11" s="13">
+      <c r="Q11" s="13">
         <v>101083653</v>
       </c>
-      <c r="H11" s="13">
+      <c r="R11" s="13">
         <v>158021839</v>
       </c>
-      <c r="I11" s="13">
+      <c r="S11" s="13">
         <v>234757238</v>
       </c>
-      <c r="J11" s="13">
+      <c r="T11" s="13">
         <v>391458791</v>
       </c>
-      <c r="K11" s="13">
+      <c r="U11" s="13">
         <v>774036745</v>
       </c>
-      <c r="L11" s="13">
+      <c r="V11" s="13">
         <v>1456266489</v>
       </c>
-      <c r="M11" s="13">
+      <c r="W11" s="13">
         <v>1607038537</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-4591480</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-8076960</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-10249539</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-12658639</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-16259870</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-17435150</v>
+      </c>
+      <c r="J12" s="11">
+        <v>-18527202</v>
+      </c>
+      <c r="K12" s="11">
+        <v>-22461705</v>
+      </c>
+      <c r="L12" s="11">
+        <v>-30874606</v>
+      </c>
+      <c r="M12" s="11">
+        <v>-43298699</v>
+      </c>
+      <c r="N12" s="11">
         <v>-56201638</v>
       </c>
-      <c r="E12" s="11">
+      <c r="O12" s="11">
         <v>-69365075</v>
       </c>
-      <c r="F12" s="11">
+      <c r="P12" s="11">
         <v>-56476516</v>
       </c>
-      <c r="G12" s="11">
+      <c r="Q12" s="11">
         <v>-66160253</v>
       </c>
-      <c r="H12" s="11">
+      <c r="R12" s="11">
         <v>-85261468</v>
       </c>
-      <c r="I12" s="11">
+      <c r="S12" s="11">
         <v>-124803148</v>
       </c>
-      <c r="J12" s="11">
+      <c r="T12" s="11">
         <v>-225458652</v>
       </c>
-      <c r="K12" s="11">
+      <c r="U12" s="11">
         <v>-406302318</v>
       </c>
-      <c r="L12" s="11">
+      <c r="V12" s="11">
         <v>-701949251</v>
       </c>
-      <c r="M12" s="11">
+      <c r="W12" s="11">
         <v>-1039222069</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>3810431</v>
+      </c>
+      <c r="E13" s="15">
+        <v>8045139</v>
+      </c>
+      <c r="F13" s="15">
+        <v>7389436</v>
+      </c>
+      <c r="G13" s="15">
+        <v>9377176</v>
+      </c>
+      <c r="H13" s="15">
+        <v>15460353</v>
+      </c>
+      <c r="I13" s="15">
+        <v>18458613</v>
+      </c>
+      <c r="J13" s="15">
+        <v>9681849</v>
+      </c>
+      <c r="K13" s="15">
+        <v>15125111</v>
+      </c>
+      <c r="L13" s="15">
+        <v>14802796</v>
+      </c>
+      <c r="M13" s="15">
+        <v>27384784</v>
+      </c>
+      <c r="N13" s="15">
         <v>41076885</v>
       </c>
-      <c r="E13" s="15">
+      <c r="O13" s="15">
         <v>32634169</v>
       </c>
-      <c r="F13" s="15">
+      <c r="P13" s="15">
         <v>21690451</v>
       </c>
-      <c r="G13" s="15">
+      <c r="Q13" s="15">
         <v>34923400</v>
       </c>
-      <c r="H13" s="15">
+      <c r="R13" s="15">
         <v>72760371</v>
       </c>
-      <c r="I13" s="15">
+      <c r="S13" s="15">
         <v>109954090</v>
       </c>
-      <c r="J13" s="15">
+      <c r="T13" s="15">
         <v>166000139</v>
       </c>
-      <c r="K13" s="15">
+      <c r="U13" s="15">
         <v>367734427</v>
       </c>
-      <c r="L13" s="15">
+      <c r="V13" s="15">
         <v>754317238</v>
       </c>
-      <c r="M13" s="15">
+      <c r="W13" s="15">
         <v>567816468</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-918162</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-1336088</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-1875940</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-1837665</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-2089368</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-1754037</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-2068345</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-1818499</v>
+      </c>
+      <c r="L14" s="11">
+        <v>-3430581</v>
+      </c>
+      <c r="M14" s="11">
+        <v>-3268854</v>
+      </c>
+      <c r="N14" s="11">
         <v>-5021132</v>
       </c>
-      <c r="E14" s="11">
+      <c r="O14" s="11">
         <v>-6181022</v>
       </c>
-      <c r="F14" s="11">
+      <c r="P14" s="11">
         <v>-6255342</v>
       </c>
-      <c r="G14" s="11">
+      <c r="Q14" s="11">
         <v>-6693722</v>
       </c>
-      <c r="H14" s="11">
+      <c r="R14" s="11">
         <v>-6870013</v>
       </c>
-      <c r="I14" s="11">
+      <c r="S14" s="11">
         <v>-7692537</v>
       </c>
-      <c r="J14" s="11">
+      <c r="T14" s="11">
         <v>-11938176</v>
       </c>
-      <c r="K14" s="11">
+      <c r="U14" s="11">
         <v>-18679133</v>
       </c>
-      <c r="L14" s="11">
+      <c r="V14" s="11">
         <v>-34327741</v>
       </c>
-      <c r="M14" s="11">
+      <c r="W14" s="11">
         <v>-57705982</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>86238</v>
+      </c>
+      <c r="E16" s="11">
+        <v>110541</v>
+      </c>
+      <c r="F16" s="11">
+        <v>20921</v>
+      </c>
+      <c r="G16" s="11">
+        <v>80460</v>
+      </c>
+      <c r="H16" s="11">
+        <v>44397</v>
+      </c>
+      <c r="I16" s="11">
+        <v>64325</v>
+      </c>
+      <c r="J16" s="11">
+        <v>43074</v>
+      </c>
+      <c r="K16" s="11">
+        <v>-162686</v>
+      </c>
+      <c r="L16" s="11">
+        <v>234962</v>
+      </c>
+      <c r="M16" s="11">
+        <v>850163</v>
+      </c>
+      <c r="N16" s="11">
         <v>3456013</v>
       </c>
-      <c r="E16" s="11">
+      <c r="O16" s="11">
         <v>2298717</v>
       </c>
-      <c r="F16" s="11">
+      <c r="P16" s="11">
         <v>106199</v>
       </c>
-      <c r="G16" s="11">
+      <c r="Q16" s="11">
         <v>525201</v>
       </c>
-      <c r="H16" s="11">
+      <c r="R16" s="11">
         <v>1403184</v>
       </c>
-      <c r="I16" s="11">
+      <c r="S16" s="11">
         <v>17076969</v>
       </c>
-      <c r="J16" s="11">
+      <c r="T16" s="11">
         <v>-1475350</v>
       </c>
-      <c r="K16" s="11">
+      <c r="U16" s="11">
         <v>6356145</v>
       </c>
-      <c r="L16" s="11">
+      <c r="V16" s="11">
         <v>12254292</v>
       </c>
-      <c r="M16" s="11">
+      <c r="W16" s="11">
         <v>28207579</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>2978507</v>
+      </c>
+      <c r="E17" s="15">
+        <v>6819592</v>
+      </c>
+      <c r="F17" s="15">
+        <v>5534417</v>
+      </c>
+      <c r="G17" s="15">
+        <v>7619971</v>
+      </c>
+      <c r="H17" s="15">
+        <v>13415382</v>
+      </c>
+      <c r="I17" s="15">
+        <v>16768901</v>
+      </c>
+      <c r="J17" s="15">
+        <v>7656578</v>
+      </c>
+      <c r="K17" s="15">
+        <v>13143926</v>
+      </c>
+      <c r="L17" s="15">
+        <v>11607177</v>
+      </c>
+      <c r="M17" s="15">
+        <v>24966093</v>
+      </c>
+      <c r="N17" s="15">
         <v>39511766</v>
       </c>
-      <c r="E17" s="15">
+      <c r="O17" s="15">
         <v>28751864</v>
       </c>
-      <c r="F17" s="15">
+      <c r="P17" s="15">
         <v>15541308</v>
       </c>
-      <c r="G17" s="15">
+      <c r="Q17" s="15">
         <v>28754879</v>
       </c>
-      <c r="H17" s="15">
+      <c r="R17" s="15">
         <v>67293542</v>
       </c>
-      <c r="I17" s="15">
+      <c r="S17" s="15">
         <v>119338522</v>
       </c>
-      <c r="J17" s="15">
+      <c r="T17" s="15">
         <v>152586613</v>
       </c>
-      <c r="K17" s="15">
+      <c r="U17" s="15">
         <v>355411439</v>
       </c>
-      <c r="L17" s="15">
+      <c r="V17" s="15">
         <v>732243789</v>
       </c>
-      <c r="M17" s="15">
+      <c r="W17" s="15">
         <v>538318065</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-212886</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-165810</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-128367</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-179068</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-298378</v>
+      </c>
+      <c r="I18" s="11">
+        <v>-451444</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-710818</v>
+      </c>
+      <c r="K18" s="11">
+        <v>-930024</v>
+      </c>
+      <c r="L18" s="11">
+        <v>-2113324</v>
+      </c>
+      <c r="M18" s="11">
+        <v>-4093695</v>
+      </c>
+      <c r="N18" s="11">
         <v>-6319767</v>
       </c>
-      <c r="E18" s="11">
+      <c r="O18" s="11">
         <v>-7910993</v>
       </c>
-      <c r="F18" s="11">
+      <c r="P18" s="11">
         <v>-8921334</v>
       </c>
-      <c r="G18" s="11">
+      <c r="Q18" s="11">
         <v>-8923398</v>
       </c>
-      <c r="H18" s="11">
+      <c r="R18" s="11">
         <v>-11052537</v>
       </c>
-      <c r="I18" s="11">
+      <c r="S18" s="11">
         <v>-10253754</v>
       </c>
-      <c r="J18" s="11">
+      <c r="T18" s="11">
         <v>-14710422</v>
       </c>
-      <c r="K18" s="11">
+      <c r="U18" s="11">
         <v>-30243308</v>
       </c>
-      <c r="L18" s="11">
+      <c r="V18" s="11">
         <v>-24945630</v>
       </c>
-      <c r="M18" s="11">
+      <c r="W18" s="11">
         <v>-37824386</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>-72270</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-223006</v>
+      </c>
+      <c r="F19" s="13">
+        <v>418711</v>
+      </c>
+      <c r="G19" s="13">
+        <v>-12928</v>
+      </c>
+      <c r="H19" s="13">
+        <v>198519</v>
+      </c>
+      <c r="I19" s="13">
+        <v>-2428538</v>
+      </c>
+      <c r="J19" s="13">
+        <v>1226306</v>
+      </c>
+      <c r="K19" s="13">
+        <v>3492423</v>
+      </c>
+      <c r="L19" s="13">
+        <v>1496999</v>
+      </c>
+      <c r="M19" s="13">
+        <v>2343972</v>
+      </c>
+      <c r="N19" s="13">
         <v>2072243</v>
       </c>
-      <c r="E19" s="13">
+      <c r="O19" s="13">
         <v>5995674</v>
       </c>
-      <c r="F19" s="13">
+      <c r="P19" s="13">
         <v>2141446</v>
       </c>
-      <c r="G19" s="13">
+      <c r="Q19" s="13">
         <v>3085080</v>
       </c>
-      <c r="H19" s="13">
+      <c r="R19" s="13">
         <v>9823018</v>
       </c>
-      <c r="I19" s="13">
+      <c r="S19" s="13">
         <v>23084419</v>
       </c>
-      <c r="J19" s="13">
+      <c r="T19" s="13">
         <v>31122266</v>
       </c>
-      <c r="K19" s="13">
+      <c r="U19" s="13">
         <v>90009897</v>
       </c>
-      <c r="L19" s="13">
+      <c r="V19" s="13">
         <v>184678606</v>
       </c>
-      <c r="M19" s="13">
+      <c r="W19" s="13">
         <v>228667077</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>2693351</v>
+      </c>
+      <c r="E20" s="17">
+        <v>6430776</v>
+      </c>
+      <c r="F20" s="17">
+        <v>5824761</v>
+      </c>
+      <c r="G20" s="17">
+        <v>7427975</v>
+      </c>
+      <c r="H20" s="17">
+        <v>13315523</v>
+      </c>
+      <c r="I20" s="17">
+        <v>13888919</v>
+      </c>
+      <c r="J20" s="17">
+        <v>8172066</v>
+      </c>
+      <c r="K20" s="17">
+        <v>15706325</v>
+      </c>
+      <c r="L20" s="17">
+        <v>10990852</v>
+      </c>
+      <c r="M20" s="17">
+        <v>23216370</v>
+      </c>
+      <c r="N20" s="17">
         <v>35264242</v>
       </c>
-      <c r="E20" s="17">
+      <c r="O20" s="17">
         <v>26836545</v>
       </c>
-      <c r="F20" s="17">
+      <c r="P20" s="17">
         <v>8761420</v>
       </c>
-      <c r="G20" s="17">
+      <c r="Q20" s="17">
         <v>22916561</v>
       </c>
-      <c r="H20" s="17">
+      <c r="R20" s="17">
         <v>66064023</v>
       </c>
-      <c r="I20" s="17">
+      <c r="S20" s="17">
         <v>132169187</v>
       </c>
-      <c r="J20" s="17">
+      <c r="T20" s="17">
         <v>168998457</v>
       </c>
-      <c r="K20" s="17">
+      <c r="U20" s="17">
         <v>415178028</v>
       </c>
-      <c r="L20" s="17">
+      <c r="V20" s="17">
         <v>891976765</v>
       </c>
-      <c r="M20" s="17">
+      <c r="W20" s="17">
         <v>729160756</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-1332875</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-1193826</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-259475</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-1313689</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-2796929</v>
+      </c>
+      <c r="I21" s="13">
+        <v>-3533200</v>
+      </c>
+      <c r="J21" s="13">
+        <v>-793833</v>
+      </c>
+      <c r="K21" s="13">
+        <v>-2012532</v>
+      </c>
+      <c r="L21" s="13">
+        <v>-1344264</v>
+      </c>
+      <c r="M21" s="13">
+        <v>-3164581</v>
+      </c>
+      <c r="N21" s="13">
         <v>-4376767</v>
       </c>
-      <c r="E21" s="13">
+      <c r="O21" s="13">
         <v>-3075814</v>
       </c>
-      <c r="F21" s="13">
+      <c r="P21" s="13">
         <v>-829704</v>
       </c>
-      <c r="G21" s="13">
+      <c r="Q21" s="13">
         <v>-2146221</v>
       </c>
-      <c r="H21" s="13">
+      <c r="R21" s="13">
         <v>-5747241</v>
       </c>
-      <c r="I21" s="13">
+      <c r="S21" s="13">
         <v>-9864015</v>
       </c>
-      <c r="J21" s="13">
+      <c r="T21" s="13">
         <v>-21038649</v>
       </c>
-      <c r="K21" s="13">
+      <c r="U21" s="13">
         <v>-32403017</v>
       </c>
-      <c r="L21" s="13">
+      <c r="V21" s="13">
         <v>-62985596</v>
       </c>
-      <c r="M21" s="13">
+      <c r="W21" s="13">
         <v>-49919939</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>1360476</v>
+      </c>
+      <c r="E22" s="17">
+        <v>5236950</v>
+      </c>
+      <c r="F22" s="17">
+        <v>5565286</v>
+      </c>
+      <c r="G22" s="17">
+        <v>6114286</v>
+      </c>
+      <c r="H22" s="17">
+        <v>10518594</v>
+      </c>
+      <c r="I22" s="17">
+        <v>10355719</v>
+      </c>
+      <c r="J22" s="17">
+        <v>7378233</v>
+      </c>
+      <c r="K22" s="17">
+        <v>13693793</v>
+      </c>
+      <c r="L22" s="17">
+        <v>9646588</v>
+      </c>
+      <c r="M22" s="17">
+        <v>20051789</v>
+      </c>
+      <c r="N22" s="17">
         <v>30887475</v>
       </c>
-      <c r="E22" s="17">
+      <c r="O22" s="17">
         <v>23760731</v>
       </c>
-      <c r="F22" s="17">
+      <c r="P22" s="17">
         <v>7931716</v>
       </c>
-      <c r="G22" s="17">
+      <c r="Q22" s="17">
         <v>20770340</v>
       </c>
-      <c r="H22" s="17">
+      <c r="R22" s="17">
         <v>60316782</v>
       </c>
-      <c r="I22" s="17">
+      <c r="S22" s="17">
         <v>122305172</v>
       </c>
-      <c r="J22" s="17">
+      <c r="T22" s="17">
         <v>147959808</v>
       </c>
-      <c r="K22" s="17">
+      <c r="U22" s="17">
         <v>382775011</v>
       </c>
-      <c r="L22" s="17">
+      <c r="V22" s="17">
         <v>828991169</v>
       </c>
-      <c r="M22" s="17">
+      <c r="W22" s="17">
         <v>679240817</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1288,152 +1845,302 @@
       <c r="M23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <v>0</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0</v>
+      </c>
+      <c r="W23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>1360476</v>
+      </c>
+      <c r="E24" s="17">
+        <v>5236950</v>
+      </c>
+      <c r="F24" s="17">
+        <v>5565286</v>
+      </c>
+      <c r="G24" s="17">
+        <v>6114286</v>
+      </c>
+      <c r="H24" s="17">
+        <v>10518594</v>
+      </c>
+      <c r="I24" s="17">
+        <v>10355719</v>
+      </c>
+      <c r="J24" s="17">
+        <v>7378233</v>
+      </c>
+      <c r="K24" s="17">
+        <v>13693793</v>
+      </c>
+      <c r="L24" s="17">
+        <v>9646588</v>
+      </c>
+      <c r="M24" s="17">
+        <v>20051789</v>
+      </c>
+      <c r="N24" s="17">
         <v>30887475</v>
       </c>
-      <c r="E24" s="17">
+      <c r="O24" s="17">
         <v>23760731</v>
       </c>
-      <c r="F24" s="17">
+      <c r="P24" s="17">
         <v>7931716</v>
       </c>
-      <c r="G24" s="17">
+      <c r="Q24" s="17">
         <v>20770340</v>
       </c>
-      <c r="H24" s="17">
+      <c r="R24" s="17">
         <v>60316782</v>
       </c>
-      <c r="I24" s="17">
+      <c r="S24" s="17">
         <v>122305172</v>
       </c>
-      <c r="J24" s="17">
+      <c r="T24" s="17">
         <v>147959808</v>
       </c>
-      <c r="K24" s="17">
+      <c r="U24" s="17">
         <v>382775011</v>
       </c>
-      <c r="L24" s="17">
+      <c r="V24" s="17">
         <v>828991169</v>
       </c>
-      <c r="M24" s="17">
+      <c r="W24" s="17">
         <v>679240817</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>163</v>
+      </c>
+      <c r="E25" s="13">
+        <v>626</v>
+      </c>
+      <c r="F25" s="13">
+        <v>352</v>
+      </c>
+      <c r="G25" s="13">
+        <v>387</v>
+      </c>
+      <c r="H25" s="13">
+        <v>666</v>
+      </c>
+      <c r="I25" s="13">
+        <v>655</v>
+      </c>
+      <c r="J25" s="13">
+        <v>467</v>
+      </c>
+      <c r="K25" s="13">
+        <v>531</v>
+      </c>
+      <c r="L25" s="13">
+        <v>374</v>
+      </c>
+      <c r="M25" s="13">
+        <v>777</v>
+      </c>
+      <c r="N25" s="13">
         <v>858</v>
       </c>
-      <c r="E25" s="13">
+      <c r="O25" s="13">
         <v>475</v>
       </c>
-      <c r="F25" s="13">
+      <c r="P25" s="13">
         <v>159</v>
       </c>
-      <c r="G25" s="13">
+      <c r="Q25" s="13">
         <v>277</v>
       </c>
-      <c r="H25" s="13">
+      <c r="R25" s="13">
         <v>804</v>
       </c>
-      <c r="I25" s="13">
+      <c r="S25" s="13">
         <v>585</v>
       </c>
-      <c r="J25" s="13">
+      <c r="T25" s="13">
         <v>505</v>
       </c>
-      <c r="K25" s="13">
+      <c r="U25" s="13">
         <v>1306</v>
       </c>
-      <c r="L25" s="13">
+      <c r="V25" s="13">
         <v>1036</v>
       </c>
-      <c r="M25" s="13">
+      <c r="W25" s="13">
         <v>849</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
+        <v>8366148</v>
+      </c>
+      <c r="E26" s="11">
+        <v>8366148</v>
+      </c>
+      <c r="F26" s="11">
+        <v>15800000</v>
+      </c>
+      <c r="G26" s="11">
+        <v>15800000</v>
+      </c>
+      <c r="H26" s="11">
+        <v>15800000</v>
+      </c>
+      <c r="I26" s="11">
+        <v>15800000</v>
+      </c>
+      <c r="J26" s="11">
+        <v>15800000</v>
+      </c>
+      <c r="K26" s="11">
+        <v>25800000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>25800000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>25800000</v>
+      </c>
+      <c r="N26" s="11">
         <v>36000000</v>
       </c>
-      <c r="E26" s="11">
+      <c r="O26" s="11">
         <v>50000000</v>
       </c>
-      <c r="F26" s="11">
+      <c r="P26" s="11">
         <v>50000000</v>
       </c>
-      <c r="G26" s="11">
+      <c r="Q26" s="11">
         <v>75000000</v>
       </c>
-      <c r="H26" s="11">
+      <c r="R26" s="11">
         <v>75000000</v>
       </c>
-      <c r="I26" s="11">
+      <c r="S26" s="11">
         <v>209000000</v>
       </c>
-      <c r="J26" s="11">
+      <c r="T26" s="11">
         <v>293000000</v>
       </c>
-      <c r="K26" s="11">
+      <c r="U26" s="11">
         <v>293000000</v>
       </c>
-      <c r="L26" s="11">
+      <c r="V26" s="11">
         <v>800000000</v>
       </c>
-      <c r="M26" s="11">
+      <c r="W26" s="11">
         <v>800000000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>2</v>
+      </c>
+      <c r="E27" s="13">
+        <v>7</v>
+      </c>
+      <c r="F27" s="13">
+        <v>7</v>
+      </c>
+      <c r="G27" s="13">
+        <v>8</v>
+      </c>
+      <c r="H27" s="13">
+        <v>13</v>
+      </c>
+      <c r="I27" s="13">
+        <v>13</v>
+      </c>
+      <c r="J27" s="13">
+        <v>9</v>
+      </c>
+      <c r="K27" s="13">
+        <v>17</v>
+      </c>
+      <c r="L27" s="13">
+        <v>12</v>
+      </c>
+      <c r="M27" s="13">
+        <v>25</v>
+      </c>
+      <c r="N27" s="13">
         <v>39</v>
       </c>
-      <c r="E27" s="13">
+      <c r="O27" s="13">
         <v>30</v>
       </c>
-      <c r="F27" s="13">
+      <c r="P27" s="13">
         <v>10</v>
       </c>
-      <c r="G27" s="13">
+      <c r="Q27" s="13">
         <v>26</v>
       </c>
-      <c r="H27" s="13">
+      <c r="R27" s="13">
         <v>75</v>
       </c>
-      <c r="I27" s="13">
+      <c r="S27" s="13">
         <v>153</v>
       </c>
-      <c r="J27" s="13">
+      <c r="T27" s="13">
         <v>185</v>
       </c>
-      <c r="K27" s="13">
+      <c r="U27" s="13">
         <v>478</v>
       </c>
-      <c r="L27" s="13">
+      <c r="V27" s="13">
         <v>1036</v>
       </c>
-      <c r="M27" s="13">
+      <c r="W27" s="13">
         <v>849</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1446,6 +2153,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
